--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABDF/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABDF/20/seed5/result_data_RandomForest.xlsx
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>5.974699999999995</v>
+        <v>6.187699999999991</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -499,7 +499,7 @@
         <v>-22.38</v>
       </c>
       <c r="B4" t="n">
-        <v>5.362000000000005</v>
+        <v>5.634700000000002</v>
       </c>
       <c r="C4" t="n">
         <v>-11.3</v>
@@ -539,7 +539,7 @@
         <v>-12.89</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.018399999999993</v>
+        <v>-7.960399999999997</v>
       </c>
       <c r="E6" t="n">
         <v>14.65</v>
@@ -550,13 +550,13 @@
         <v>-21.21</v>
       </c>
       <c r="B7" t="n">
-        <v>5.909699999999996</v>
+        <v>5.909099999999992</v>
       </c>
       <c r="C7" t="n">
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.173799999999996</v>
+        <v>-7.092599999999994</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -567,13 +567,13 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>6.393799999999999</v>
+        <v>6.142799999999997</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.948999999999999</v>
+        <v>-7.6939</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-21.93270000000002</v>
+        <v>-21.91580000000002</v>
       </c>
       <c r="B11" t="n">
         <v>6.01</v>
@@ -627,15 +627,15 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.7144</v>
+        <v>13.41710000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.67680000000001</v>
+        <v>-22.72080000000002</v>
       </c>
       <c r="B12" t="n">
-        <v>5.529599999999999</v>
+        <v>5.7308</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -669,7 +669,7 @@
         <v>-20.07</v>
       </c>
       <c r="B14" t="n">
-        <v>9.120300000000002</v>
+        <v>8.978900000000003</v>
       </c>
       <c r="C14" t="n">
         <v>-11.89</v>
@@ -678,12 +678,12 @@
         <v>-7.97</v>
       </c>
       <c r="E14" t="n">
-        <v>13.16840000000001</v>
+        <v>13.03390000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-21.42660000000002</v>
+        <v>-21.35760000000003</v>
       </c>
       <c r="B15" t="n">
         <v>5.53</v>
@@ -760,10 +760,10 @@
         <v>-14.32</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.65149999999999</v>
+        <v>-8.118299999999991</v>
       </c>
       <c r="E19" t="n">
-        <v>13.209</v>
+        <v>13.5879</v>
       </c>
     </row>
     <row r="20">
@@ -794,10 +794,10 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.931000000000004</v>
+        <v>-7.748000000000003</v>
       </c>
       <c r="E21" t="n">
-        <v>13.14300000000001</v>
+        <v>13.19270000000002</v>
       </c>
     </row>
     <row r="22">
@@ -805,7 +805,7 @@
         <v>-20.95</v>
       </c>
       <c r="B22" t="n">
-        <v>5.674000000000001</v>
+        <v>5.8798</v>
       </c>
       <c r="C22" t="n">
         <v>-10.65</v>
@@ -845,7 +845,7 @@
         <v>-12.7</v>
       </c>
       <c r="D24" t="n">
-        <v>-8.091599999999996</v>
+        <v>-8.169199999999996</v>
       </c>
       <c r="E24" t="n">
         <v>12.16</v>
@@ -862,7 +862,7 @@
         <v>-14.32</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.02699999999999</v>
+        <v>-7.866199999999992</v>
       </c>
       <c r="E25" t="n">
         <v>15.03</v>
